--- a/biology/Botanique/Xyridaceae/Xyridaceae.xlsx
+++ b/biology/Botanique/Xyridaceae/Xyridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Xyridacées est constituée de plantes monocotylédones ; elle comprend près de 300 espèces réparties en 4-5 genres.
 Ce sont des plantes herbacées, pérennes, rhizomateuses, des régions subtropicales à tropicales, même arides pour certaines espèces.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Xyris dérivé du grec ξυράφι / xyrafi, rasoir, en référence aux feuilles de certaines espèces dont les bords sont tranchants[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Xyris dérivé du grec ξυράφι / xyrafi, rasoir, en référence aux feuilles de certaines espèces dont les bords sont tranchants.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première classification phylogénétique APG (1998)[2] distinguait les Abolbodacées (genre Abolboda) rattaché directement à la base des Commelinidées, mais la classification phylogénétique APG II (2003)[3] réintègre ce genre dans les Xyridaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première classification phylogénétique APG (1998) distinguait les Abolbodacées (genre Abolboda) rattaché directement à la base des Commelinidées, mais la classification phylogénétique APG II (2003) réintègre ce genre dans les Xyridaceae.
 </t>
         </is>
       </c>
@@ -575,20 +591,22 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[4], Angiosperm Phylogeny Website                        (19 mai 2010)[5] et DELTA Angio           (22 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010) et DELTA Angio           (22 avr. 2010) :
 genre Abolboda Bonpl. (1809)
 genre Achlyphila Maguire &amp; Wurdack (1960)
 genre Aratitiyopea Steyerm. &amp; P.E.Berry (1984)
 genre Orectanthe Maguire (1958)
 genre Xyris Gronov. ex L. (1753)
-Selon NCBI  (22 avr. 2010)[7] :
+Selon NCBI  (22 avr. 2010) :
 genre Abolboda
 genre Aratitiyopea
 genre Orectanthe
 genre Xyris
-Selon ITIS      (22 avr. 2010)[8] :
+Selon ITIS      (22 avr. 2010) :
 genre Xyris L.</t>
         </is>
       </c>
